--- a/Factors and Ridership Data/Script Outputs/Est7_Outputs/FAC Summary Reports/template.xlsx
+++ b/Factors and Ridership Data/Script Outputs/Est7_Outputs/FAC Summary Reports/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="82" documentId="8_{16525125-4DEE-4FB9-9E74-37A90FA01EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4970CD9B-8AD8-401D-9B34-78720355F5EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,18 +490,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,22 +504,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -860,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,28 +879,28 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -922,15 +912,15 @@
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
@@ -972,7 +962,7 @@
         <f>IFERROR((F8-E8)*100/E8,0)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="27">
         <f>IFERROR(H8*100/$E$21,0)</f>
         <v>0</v>
@@ -992,7 +982,7 @@
         <f t="shared" ref="G9:G21" si="0">IFERROR((F9-E9)*100/E9,0)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="27">
         <f t="shared" ref="I9:I19" si="1">IFERROR(H9*100/$E$21,0)</f>
         <v>0</v>
@@ -1012,7 +1002,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="38"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1030,7 +1020,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1050,7 +1040,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1070,7 +1060,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1088,7 +1078,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1106,7 +1096,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1124,7 +1114,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1142,7 +1132,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1160,7 +1150,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1178,26 +1168,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="43">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39">
         <f>G20</f>
         <v>0</v>
       </c>
@@ -1214,7 +1204,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="30">
         <f>G21</f>
         <v>0</v>
@@ -1229,7 +1219,7 @@
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1232,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G8:G21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1294,11 +1284,11 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="I5" s="2" t="s">
         <v>20</v>
       </c>

--- a/Factors and Ridership Data/Script Outputs/Est7_Outputs/FAC Summary Reports/template.xlsx
+++ b/Factors and Ridership Data/Script Outputs/Est7_Outputs/FAC Summary Reports/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoK\OneDrive - University of Kentucky\github\Transit_ridership\transit_ridership_decline\Factors and Ridership Data\Script Outputs\Est7_Outputs\FAC Summary Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{16525125-4DEE-4FB9-9E74-37A90FA01EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4970CD9B-8AD8-401D-9B34-78720355F5EA}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{16525125-4DEE-4FB9-9E74-37A90FA01EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFD58EAC-7B27-4FEC-BBA0-B780AF06A2F1}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -490,20 +490,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,7 +855,7 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,28 +883,28 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -912,15 +916,15 @@
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
@@ -956,15 +960,15 @@
         <v>52</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27">
-        <f>IFERROR((F8-E8)*100/E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="27">
-        <f>IFERROR(H8*100/$E$21,0)</f>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="43">
+        <f>IFERROR((F8-E8)/E8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="43">
+        <f>IFERROR(H8/$E$21,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -976,15 +980,15 @@
         <v>52</v>
       </c>
       <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27">
-        <f t="shared" ref="G9:G21" si="0">IFERROR((F9-E9)*100/E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="27">
-        <f t="shared" ref="I9:I19" si="1">IFERROR(H9*100/$E$21,0)</f>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="43">
+        <f t="shared" ref="G9:G18" si="0">IFERROR((F9-E9)/E9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="43">
+        <f t="shared" ref="I9:I18" si="1">IFERROR(H9/$E$21,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -996,14 +1000,14 @@
         <v>52</v>
       </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="27">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1014,14 +1018,14 @@
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="27">
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1034,14 +1038,14 @@
         <v>52</v>
       </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="27">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1054,14 +1058,14 @@
         <v>52</v>
       </c>
       <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="27">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1072,14 +1076,14 @@
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="27">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1090,14 +1094,14 @@
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="27">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1108,14 +1112,14 @@
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="27">
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1126,14 +1130,14 @@
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="27">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1144,14 +1148,14 @@
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="27">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1162,32 +1166,32 @@
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="30">
-        <f t="shared" si="1"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="44">
+        <f>IFERROR((F19-E19)/E19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="44">
+        <f>IFERROR(H19/$E$21,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="39">
+      <c r="G20" s="45">
+        <f>IFERROR((F20-E20)/E20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="45">
         <f>G20</f>
         <v>0</v>
       </c>
@@ -1198,14 +1202,14 @@
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="30">
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="43">
+        <f>IFERROR((F21-E21)/E21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="44">
         <f>G21</f>
         <v>0</v>
       </c>
@@ -1216,10 +1220,10 @@
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="36"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1284,11 +1288,11 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
